--- a/boss-crawl/chan.xlsx
+++ b/boss-crawl/chan.xlsx
@@ -28338,11 +28338,7 @@
         <v>14557850</v>
       </c>
       <c r="D1447" t="inlineStr"/>
-      <c r="E1447" t="inlineStr">
-        <is>
-          <t>电影《热辣滚烫》官方账号</t>
-        </is>
-      </c>
+      <c r="E1447" t="inlineStr"/>
     </row>
     <row r="1448">
       <c r="A1448" t="inlineStr">
@@ -28355,11 +28351,7 @@
         <v>17991335</v>
       </c>
       <c r="D1448" t="inlineStr"/>
-      <c r="E1448" t="inlineStr">
-        <is>
-          <t>尊重作品，尊重观众</t>
-        </is>
-      </c>
+      <c r="E1448" t="inlineStr"/>
     </row>
     <row r="1449">
       <c r="A1449" t="inlineStr">
@@ -28372,11 +28364,7 @@
         <v>3000368</v>
       </c>
       <c r="D1449" t="inlineStr"/>
-      <c r="E1449" t="inlineStr">
-        <is>
-          <t>感谢抖音❤️ 如有侵权可联系删除~</t>
-        </is>
-      </c>
+      <c r="E1449" t="inlineStr"/>
     </row>
     <row r="1450">
       <c r="A1450" t="inlineStr">
@@ -28389,11 +28377,7 @@
         <v>2317104</v>
       </c>
       <c r="D1450" t="inlineStr"/>
-      <c r="E1450" t="inlineStr">
-        <is>
-          <t>🍑一个热爱追剧的小桃桃 🌾《生万物》🥝正在热播中～ 😚2025心愿：每个追剧桃粉都能暴富暴美✨</t>
-        </is>
-      </c>
+      <c r="E1450" t="inlineStr"/>
     </row>
     <row r="1451">
       <c r="A1451" t="inlineStr">
@@ -28406,11 +28390,7 @@
         <v>9457825</v>
       </c>
       <c r="D1451" t="inlineStr"/>
-      <c r="E1451" t="inlineStr">
-        <is>
-          <t>👑【先关注者 尊享王座】👑 🎬笑料大本营 逗你乐不停 @桃厂小逗剧场</t>
-        </is>
-      </c>
+      <c r="E1451" t="inlineStr"/>
     </row>
     <row r="1452">
       <c r="A1452" t="inlineStr">
@@ -28423,11 +28403,7 @@
         <v>2843056</v>
       </c>
       <c r="D1452" t="inlineStr"/>
-      <c r="E1452" t="inlineStr">
-        <is>
-          <t>享受电影，延长生命</t>
-        </is>
-      </c>
+      <c r="E1452" t="inlineStr"/>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
@@ -28440,11 +28416,7 @@
         <v>19703500</v>
       </c>
       <c r="D1453" t="inlineStr"/>
-      <c r="E1453" t="inlineStr">
-        <is>
-          <t>🎬追剧才是我的灵魂搭子！ 📺放松时刻 你爱看的这里都有~ 📣《生万物》开播，火速🥝看！</t>
-        </is>
-      </c>
+      <c r="E1453" t="inlineStr"/>
     </row>
     <row r="1454">
       <c r="A1454" t="inlineStr">
@@ -28457,11 +28429,7 @@
         <v>13266790</v>
       </c>
       <c r="D1454" t="inlineStr"/>
-      <c r="E1454" t="inlineStr">
-        <is>
-          <t>🌞</t>
-        </is>
-      </c>
+      <c r="E1454" t="inlineStr"/>
     </row>
     <row r="1455">
       <c r="A1455" t="inlineStr">
@@ -28474,11 +28442,7 @@
         <v>2624581</v>
       </c>
       <c r="D1455" t="inlineStr"/>
-      <c r="E1455" t="inlineStr">
-        <is>
-          <t>如有侵权联系删除 直接举报我的人一辈子发不了财 🌹感谢抖音</t>
-        </is>
-      </c>
+      <c r="E1455" t="inlineStr"/>
     </row>
     <row r="1456">
       <c r="A1456" t="inlineStr">
@@ -28491,11 +28455,7 @@
         <v>13893878</v>
       </c>
       <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr">
-        <is>
-          <t>报！殷商大军全军出击，西岐保卫战打响！ 🔥2025 大年初一🔥 看中国神话，过中国新年</t>
-        </is>
-      </c>
+      <c r="E1456" t="inlineStr"/>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr">
@@ -28508,11 +28468,7 @@
         <v>8374422</v>
       </c>
       <c r="D1457" t="inlineStr"/>
-      <c r="E1457" t="inlineStr">
-        <is>
-          <t>🌹：每日精彩剧情，等你来看</t>
-        </is>
-      </c>
+      <c r="E1457" t="inlineStr"/>
     </row>
     <row r="1458">
       <c r="A1458" t="inlineStr">
@@ -28525,11 +28481,7 @@
         <v>10041367</v>
       </c>
       <c r="D1458" t="inlineStr"/>
-      <c r="E1458" t="inlineStr">
-        <is>
-          <t>大道应该更高，因我而更高 短剧《小饼干》经费紧缺，接冠名赞助 招有片场经验的团队成员（问卷和邮箱在我的🧣） ✈️线下行程请前往@小夏摊煎饼 🫡 搭档@夏天妹妹 我们从来没有公司 ，无编剧，内容全流程都是我们自己做的，别被骗啦～ 无任何mcn，自己对接，商务🛰️：Dfdg86688（备注品牌哦）</t>
-        </is>
-      </c>
+      <c r="E1458" t="inlineStr"/>
     </row>
     <row r="1459">
       <c r="A1459" t="inlineStr">
@@ -28542,11 +28494,7 @@
         <v>10962495</v>
       </c>
       <c r="D1459" t="inlineStr"/>
-      <c r="E1459" t="inlineStr">
-        <is>
-          <t>籍贯：中国·新疆 ⚠️日常生活@阿力生活🥃</t>
-        </is>
-      </c>
+      <c r="E1459" t="inlineStr"/>
     </row>
     <row r="1460">
       <c r="A1460" t="inlineStr">
@@ -28559,11 +28507,7 @@
         <v>5788653</v>
       </c>
       <c r="D1460" t="inlineStr"/>
-      <c r="E1460" t="inlineStr">
-        <is>
-          <t>演员 生活有你希望的样子，也有它本来的样子 合作v:RyMCN-01（备注来意）</t>
-        </is>
-      </c>
+      <c r="E1460" t="inlineStr"/>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
@@ -28576,11 +28520,7 @@
         <v>1483859</v>
       </c>
       <c r="D1461" t="inlineStr"/>
-      <c r="E1461" t="inlineStr">
-        <is>
-          <t>浙江卫视《嗨放派》节目官方账号</t>
-        </is>
-      </c>
+      <c r="E1461" t="inlineStr"/>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
@@ -28593,11 +28533,7 @@
         <v>8023188</v>
       </c>
       <c r="D1462" t="inlineStr"/>
-      <c r="E1462" t="inlineStr">
-        <is>
-          <t>感谢抖音平台🍎 宣发走星图联系 合作MM588113112</t>
-        </is>
-      </c>
+      <c r="E1462" t="inlineStr"/>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
@@ -39868,7 +39804,11 @@
         <v>325940</v>
       </c>
       <c r="D2329" t="inlineStr"/>
-      <c r="E2329" t="inlineStr"/>
+      <c r="E2329" t="inlineStr">
+        <is>
+          <t>🍒少女英雄林其乐 VS 天之骄子蒋峤西🌄 青梅竹马叠天降buff💥小太阳治愈美强惨 ✨@赵今麦angel ✘ @张凌赫 ✨ 👖7.14全网独播·共赴青春🍃</t>
+        </is>
+      </c>
     </row>
     <row r="2330">
       <c r="A2330" t="inlineStr">
@@ -39881,7 +39821,11 @@
         <v>302031</v>
       </c>
       <c r="D2330" t="inlineStr"/>
-      <c r="E2330" t="inlineStr"/>
+      <c r="E2330" t="inlineStr">
+        <is>
+          <t>娱乐圈知识不如人？ 班主任带你划重点！</t>
+        </is>
+      </c>
     </row>
     <row r="2331">
       <c r="A2331" t="inlineStr">
@@ -39894,7 +39838,11 @@
         <v>2079466</v>
       </c>
       <c r="D2331" t="inlineStr"/>
-      <c r="E2331" t="inlineStr"/>
+      <c r="E2331" t="inlineStr">
+        <is>
+          <t>🎤本张舞曲专为有原人打造💿 1⃣️7⃣️0⃣️0⃣️美如画🥰有原CP战黄沙 皇孙女将情无涯❤‍🔥江山为聘娶回家 许凯⚔️李嶷 景甜🎭崔琳 🐧正在热播中 一起来原子找乐子</t>
+        </is>
+      </c>
     </row>
     <row r="2332">
       <c r="A2332" t="inlineStr">
@@ -39907,7 +39855,11 @@
         <v>1731625</v>
       </c>
       <c r="D2332" t="inlineStr"/>
-      <c r="E2332" t="inlineStr"/>
+      <c r="E2332" t="inlineStr">
+        <is>
+          <t>🔥麦芽原创短剧官方账号 ❤️每日更新精品短剧，带你体验别样人生 👉点击关注，每天限免爆款剧付费集 👉更多好剧关注@麦芽甜宠剧场 @麦芽逆袭剧场 @麦芽短剧</t>
+        </is>
+      </c>
     </row>
     <row r="2333">
       <c r="A2333" t="inlineStr">
@@ -39920,7 +39872,11 @@
         <v>231228</v>
       </c>
       <c r="D2333" t="inlineStr"/>
-      <c r="E2333" t="inlineStr"/>
+      <c r="E2333" t="inlineStr">
+        <is>
+          <t>美式解说！这个男人真牛逼！牛了个大逼！ 橱窗里有非常好吃的东西，好吃 好好吃！ 牛逼的真人日常生活视频@扣肉 合作👉 Kbddlkb</t>
+        </is>
+      </c>
     </row>
     <row r="2334">
       <c r="A2334" t="inlineStr">
@@ -39933,7 +39889,11 @@
         <v>1129361</v>
       </c>
       <c r="D2334" t="inlineStr"/>
-      <c r="E2334" t="inlineStr"/>
+      <c r="E2334" t="inlineStr">
+        <is>
+          <t>账号不出 勿扰！ 别让我怼 更新高质量短剧💗 品好剧纵享人生新丝滑💗 谢谢您的关注与喜欢💗 aini990650（备注来意）</t>
+        </is>
+      </c>
     </row>
     <row r="2335">
       <c r="A2335" t="inlineStr">
@@ -39946,7 +39906,11 @@
         <v>272080</v>
       </c>
       <c r="D2335" t="inlineStr"/>
-      <c r="E2335" t="inlineStr"/>
+      <c r="E2335" t="inlineStr">
+        <is>
+          <t>贫穷综艺剧组 三位过气女网红 每周八晚9:00 敬请期待 有没有后续全靠大家自觉</t>
+        </is>
+      </c>
     </row>
     <row r="2336">
       <c r="A2336" t="inlineStr">
@@ -39959,7 +39923,11 @@
         <v>1927202</v>
       </c>
       <c r="D2336" t="inlineStr"/>
-      <c r="E2336" t="inlineStr"/>
+      <c r="E2336" t="inlineStr">
+        <is>
+          <t>推送明星娱乐开心事～</t>
+        </is>
+      </c>
     </row>
     <row r="2337">
       <c r="A2337" t="inlineStr">
@@ -39972,7 +39940,11 @@
         <v>826292</v>
       </c>
       <c r="D2337" t="inlineStr"/>
-      <c r="E2337" t="inlineStr"/>
+      <c r="E2337" t="inlineStr">
+        <is>
+          <t>下载西瓜🍉视频看后续 海量电影、电视剧、短剧、小说 等你来看🎶🎶🎶 卫星🛰️：iyaoyuan0101</t>
+        </is>
+      </c>
     </row>
     <row r="2338">
       <c r="A2338" t="inlineStr">
@@ -39985,7 +39957,11 @@
         <v>1004212</v>
       </c>
       <c r="D2338" t="inlineStr"/>
-      <c r="E2338" t="inlineStr"/>
+      <c r="E2338" t="inlineStr">
+        <is>
+          <t>原创剧情不授权～ 🈴️：hjex8888（助理号） 百度没有账号，别被骗 不签约，不加公司，不入驻 ❤️‍🔥@二夕 其他平台同名</t>
+        </is>
+      </c>
     </row>
     <row r="2339">
       <c r="A2339" t="inlineStr">
@@ -39998,7 +39974,11 @@
         <v>79757</v>
       </c>
       <c r="D2339" t="inlineStr"/>
-      <c r="E2339" t="inlineStr"/>
+      <c r="E2339" t="inlineStr">
+        <is>
+          <t>感谢小主们关注 保证质量的前提下 争取每天日更</t>
+        </is>
+      </c>
     </row>
     <row r="2340">
       <c r="A2340" t="inlineStr">
@@ -40011,7 +39991,11 @@
         <v>211353</v>
       </c>
       <c r="D2340" t="inlineStr"/>
-      <c r="E2340" t="inlineStr"/>
+      <c r="E2340" t="inlineStr">
+        <is>
+          <t>看不见就是下架了可去这回看↓ 🛰️蝴蝶号：真的睡不饱zdsbb 突破10000000粉丝抽5000个粉丝送iPhone18</t>
+        </is>
+      </c>
     </row>
     <row r="2341">
       <c r="A2341" t="inlineStr">
@@ -40024,7 +40008,11 @@
         <v>1280581</v>
       </c>
       <c r="D2341" t="inlineStr"/>
-      <c r="E2341" t="inlineStr"/>
+      <c r="E2341" t="inlineStr">
+        <is>
+          <t>电影《人生大事》导演刘江江情感新作，再论生死善恶。 改编自真实故事，震后囚犯携手救人。 领衔主演：肖央、阿云嘎、娜扎、黄小蕾 期待再相见🎬一趟人间，愿出入平安。</t>
+        </is>
+      </c>
     </row>
     <row r="2342">
       <c r="A2342" t="inlineStr">
@@ -40037,7 +40025,11 @@
         <v>592351</v>
       </c>
       <c r="D2342" t="inlineStr"/>
-      <c r="E2342" t="inlineStr"/>
+      <c r="E2342" t="inlineStr">
+        <is>
+          <t>每日更新，谢谢你的关注，一起追剧 合作：L289541189</t>
+        </is>
+      </c>
     </row>
     <row r="2343">
       <c r="A2343" t="inlineStr">
@@ -40050,7 +40042,11 @@
         <v>302671</v>
       </c>
       <c r="D2343" t="inlineStr"/>
-      <c r="E2343" t="inlineStr"/>
+      <c r="E2343" t="inlineStr">
+        <is>
+          <t>溜鬼宝典更多是娱乐 使用需谨慎 好宝子们记得带上大心脏！！ 以后不更新了 其实我很犹豫放不下这个账号 放不下纯度囚徒放不下认识的那么多好朋友 但我病情反复 我真的很犹豫想回来 可身体告诉我 我已经没有精力去更新和直播了 就算不情愿 我也要慢慢学会放下什么 放下有时候也会得到什么 不做主播安心休息让我的病情好转的很快 我还是不适合做主播哈哈🥲 对不起原谅我的反复无常 一会说要回来一会又走 谢谢大家喜欢着我的视频和直播 以后我也会努力当好一个医生回报社会的 第五人格ID：迷妮世界史</t>
+        </is>
+      </c>
     </row>
     <row r="2344">
       <c r="A2344" t="inlineStr">
@@ -40063,7 +40059,11 @@
         <v>381103</v>
       </c>
       <c r="D2344" t="inlineStr"/>
-      <c r="E2344" t="inlineStr"/>
+      <c r="E2344" t="inlineStr">
+        <is>
+          <t>╭ .₊̣̇. ෆ˟̑ 2025年开年高分喜剧爱情电影 ˟̑ෆ .₊̣̇. ╮ ┆金晨x孙阳x李雪琴x王皓x王耀庆 爆梗不断┆ ┆ 监制大鹏x导演苏彪 有笑有爱有惊喜 ┆ ╰ ————🐺˚ଘ ⋆骗骗喜欢你⋆ ଓ˚🐑———— ╯</t>
+        </is>
+      </c>
     </row>
     <row r="2345">
       <c r="A2345" t="inlineStr">
@@ -40076,7 +40076,11 @@
         <v>946032</v>
       </c>
       <c r="D2345" t="inlineStr"/>
-      <c r="E2345" t="inlineStr"/>
+      <c r="E2345" t="inlineStr">
+        <is>
+          <t>真背尸怪咖少女⚰️假腹黑痴情县令 谈情说案🪔极致拉扯 越迷人的越危险❕❕ 3月15日👖欢迎来到🌸🌸世界</t>
+        </is>
+      </c>
     </row>
     <row r="2346">
       <c r="A2346" t="inlineStr">
@@ -40089,7 +40093,11 @@
         <v>2530741</v>
       </c>
       <c r="D2346" t="inlineStr"/>
-      <c r="E2346" t="inlineStr"/>
+      <c r="E2346" t="inlineStr">
+        <is>
+          <t>感谢官方</t>
+        </is>
+      </c>
     </row>
     <row r="2347">
       <c r="A2347" t="inlineStr">
@@ -40102,7 +40110,11 @@
         <v>1961230</v>
       </c>
       <c r="D2347" t="inlineStr"/>
-      <c r="E2347" t="inlineStr"/>
+      <c r="E2347" t="inlineStr">
+        <is>
+          <t>重温美好时光，细品人生百味。 未经同意，搬运洗稿必究，一切后果自负！</t>
+        </is>
+      </c>
     </row>
     <row r="2348">
       <c r="A2348" t="inlineStr">
@@ -40115,7 +40127,11 @@
         <v>500163</v>
       </c>
       <c r="D2348" t="inlineStr"/>
-      <c r="E2348" t="inlineStr"/>
+      <c r="E2348" t="inlineStr">
+        <is>
+          <t>感谢关注 感谢支持 感谢抖音平台 如有冒犯 请私立删 和气生财</t>
+        </is>
+      </c>
     </row>
     <row r="2349">
       <c r="A2349" t="inlineStr">
@@ -40128,7 +40144,11 @@
         <v>329608</v>
       </c>
       <c r="D2349" t="inlineStr"/>
-      <c r="E2349" t="inlineStr"/>
+      <c r="E2349" t="inlineStr">
+        <is>
+          <t>关注我，给你双倍快乐 【🈲搬运，🈲二传二改】</t>
+        </is>
+      </c>
     </row>
     <row r="2350">
       <c r="A2350" t="inlineStr">
@@ -40141,7 +40161,11 @@
         <v>687524</v>
       </c>
       <c r="D2350" t="inlineStr"/>
-      <c r="E2350" t="inlineStr"/>
+      <c r="E2350" t="inlineStr">
+        <is>
+          <t>娱乐资讯</t>
+        </is>
+      </c>
     </row>
     <row r="2351">
       <c r="A2351" t="inlineStr">
@@ -40167,7 +40191,11 @@
         <v>1993908</v>
       </c>
       <c r="D2352" t="inlineStr"/>
-      <c r="E2352" t="inlineStr"/>
+      <c r="E2352" t="inlineStr">
+        <is>
+          <t>✨感恩相遇 不负未来 ✨一段故事 一段人生 ✨合作 学习V：t86611855</t>
+        </is>
+      </c>
     </row>
     <row r="2353">
       <c r="A2353" t="inlineStr">
@@ -40180,7 +40208,11 @@
         <v>703947</v>
       </c>
       <c r="D2353" t="inlineStr"/>
-      <c r="E2353" t="inlineStr"/>
+      <c r="E2353" t="inlineStr">
+        <is>
+          <t>一生不卖号</t>
+        </is>
+      </c>
     </row>
     <row r="2354">
       <c r="A2354" t="inlineStr">
@@ -40193,7 +40225,11 @@
         <v>1417667</v>
       </c>
       <c r="D2354" t="inlineStr"/>
-      <c r="E2354" t="inlineStr"/>
+      <c r="E2354" t="inlineStr">
+        <is>
+          <t>追剧得是小师兄，为人正直有趣，关注我，带你博览众剧！</t>
+        </is>
+      </c>
     </row>
     <row r="2355">
       <c r="A2355" t="inlineStr">
@@ -40206,7 +40242,11 @@
         <v>6660529</v>
       </c>
       <c r="D2355" t="inlineStr"/>
-      <c r="E2355" t="inlineStr"/>
+      <c r="E2355" t="inlineStr">
+        <is>
+          <t>我的归途有风2🍃（热播版🎉 曹曦月×庞瀚辰 🌃破局都市焦虑 魔都卷到窒息？她一脚刹回云南！ 【本剧惊喜福利有：超绝日更📅】</t>
+        </is>
+      </c>
     </row>
     <row r="2356">
       <c r="A2356" t="inlineStr">
@@ -40219,7 +40259,11 @@
         <v>2140463</v>
       </c>
       <c r="D2356" t="inlineStr"/>
-      <c r="E2356" t="inlineStr"/>
+      <c r="E2356" t="inlineStr">
+        <is>
+          <t>灯前小草写桃符.</t>
+        </is>
+      </c>
     </row>
     <row r="2357">
       <c r="A2357" t="inlineStr">
@@ -40232,7 +40276,11 @@
         <v>236576</v>
       </c>
       <c r="D2357" t="inlineStr"/>
-      <c r="E2357" t="inlineStr"/>
+      <c r="E2357" t="inlineStr">
+        <is>
+          <t>朋友：</t>
+        </is>
+      </c>
     </row>
     <row r="2358">
       <c r="A2358" t="inlineStr">
@@ -40245,7 +40293,11 @@
         <v>916037</v>
       </c>
       <c r="D2358" t="inlineStr"/>
-      <c r="E2358" t="inlineStr"/>
+      <c r="E2358" t="inlineStr">
+        <is>
+          <t>合家欢喜剧电影 国民级欢乐阵容 雷佳音、张小斐、张宥浩领衔主演 沙溢、刘敏涛、丁嘉丽、吴彦姝、杨恩又齐聚 苏伦导演作品❤️正在热映</t>
+        </is>
+      </c>
     </row>
     <row r="2359">
       <c r="A2359" t="inlineStr">
@@ -40258,7 +40310,11 @@
         <v>590310</v>
       </c>
       <c r="D2359" t="inlineStr"/>
-      <c r="E2359" t="inlineStr"/>
+      <c r="E2359" t="inlineStr">
+        <is>
+          <t>天性绽放，本真出演！ 团队代表作： 天真派《西游记》 天真派《武林外传》 天真派《一起学习吧》 湖南卫视《谁知盘中餐》</t>
+        </is>
+      </c>
     </row>
     <row r="2360">
       <c r="A2360" t="inlineStr">
@@ -40271,7 +40327,11 @@
         <v>1721928</v>
       </c>
       <c r="D2360" t="inlineStr"/>
-      <c r="E2360" t="inlineStr"/>
+      <c r="E2360" t="inlineStr">
+        <is>
+          <t>酒店掌门人黄轩🆚傲娇空姐白百何 勇敢追爱💓认真生活</t>
+        </is>
+      </c>
     </row>
     <row r="2361">
       <c r="A2361" t="inlineStr">
@@ -40284,7 +40344,11 @@
         <v>1285570</v>
       </c>
       <c r="D2361" t="inlineStr"/>
-      <c r="E2361" t="inlineStr"/>
+      <c r="E2361" t="inlineStr">
+        <is>
+          <t>💽专注8090 经典回忆 💽分析不好 莫要见怪 💽已签独家 其他平台勿扰 💽学习❤️合作wei76720455</t>
+        </is>
+      </c>
     </row>
     <row r="2362">
       <c r="A2362" t="inlineStr">
@@ -40297,7 +40361,11 @@
         <v>650168</v>
       </c>
       <c r="D2362" t="inlineStr"/>
-      <c r="E2362" t="inlineStr"/>
+      <c r="E2362" t="inlineStr">
+        <is>
+          <t>所有视频左下角都可以看完整版！ 招原创混剪/带作品私聊🔥</t>
+        </is>
+      </c>
     </row>
     <row r="2363">
       <c r="A2363" t="inlineStr">
@@ -40323,7 +40391,11 @@
         <v>1291740</v>
       </c>
       <c r="D2364" t="inlineStr"/>
-      <c r="E2364" t="inlineStr"/>
+      <c r="E2364" t="inlineStr">
+        <is>
+          <t>九州短剧 感谢关注！</t>
+        </is>
+      </c>
     </row>
     <row r="2365">
       <c r="A2365" t="inlineStr">
@@ -40336,7 +40408,11 @@
         <v>1230073</v>
       </c>
       <c r="D2365" t="inlineStr"/>
-      <c r="E2365" t="inlineStr"/>
+      <c r="E2365" t="inlineStr">
+        <is>
+          <t>电影是一场美梦</t>
+        </is>
+      </c>
     </row>
     <row r="2366">
       <c r="A2366" t="inlineStr">
@@ -40349,7 +40425,11 @@
         <v>572301</v>
       </c>
       <c r="D2366" t="inlineStr"/>
-      <c r="E2366" t="inlineStr"/>
+      <c r="E2366" t="inlineStr">
+        <is>
+          <t>1083778085（qq 不接歌不卖号 征稿入驻勿扰） 就做你自己吧 奇怪一点也没关系❤️</t>
+        </is>
+      </c>
     </row>
     <row r="2367">
       <c r="A2367" t="inlineStr">
@@ -40362,7 +40442,11 @@
         <v>704509</v>
       </c>
       <c r="D2367" t="inlineStr"/>
-      <c r="E2367" t="inlineStr"/>
+      <c r="E2367" t="inlineStr">
+        <is>
+          <t>刘十三🤴+程霜👸+王莺莺👵+球球🧒=团圆的家人 萤火虫🪲+录音笔🖊️+鸡蛋糕🥧+...=珍贵的回忆 电影《云边有个小卖部》，全国热映中！</t>
+        </is>
+      </c>
     </row>
     <row r="2368">
       <c r="A2368" t="inlineStr">
@@ -40375,7 +40459,11 @@
         <v>1569721</v>
       </c>
       <c r="D2368" t="inlineStr"/>
-      <c r="E2368" t="inlineStr"/>
+      <c r="E2368" t="inlineStr">
+        <is>
+          <t>《披荆斩棘》官方抖音 《披荆斩棘2025》🔒🥭 8月15日起每周五周六12:00正片双更 （觉得好听好玩的视频请猛击推荐，感谢）</t>
+        </is>
+      </c>
     </row>
     <row r="2369">
       <c r="A2369" t="inlineStr">
@@ -40388,7 +40476,11 @@
         <v>443500</v>
       </c>
       <c r="D2369" t="inlineStr"/>
-      <c r="E2369" t="inlineStr"/>
+      <c r="E2369" t="inlineStr">
+        <is>
+          <t>经典武侠电视剧电影解说 尽在韩翻江湖 我就是我不一样 不畏将来珍惜当下</t>
+        </is>
+      </c>
     </row>
     <row r="2370">
       <c r="A2370" t="inlineStr">
@@ -40401,7 +40493,11 @@
         <v>1041120</v>
       </c>
       <c r="D2370" t="inlineStr"/>
-      <c r="E2370" t="inlineStr"/>
+      <c r="E2370" t="inlineStr">
+        <is>
+          <t>“涅槃之路有多荆棘，重生之美就有多绚丽” 盒作：r148312（备注来意）</t>
+        </is>
+      </c>
     </row>
     <row r="2371">
       <c r="A2371" t="inlineStr">
@@ -40414,7 +40510,11 @@
         <v>79637</v>
       </c>
       <c r="D2371" t="inlineStr"/>
-      <c r="E2371" t="inlineStr"/>
+      <c r="E2371" t="inlineStr">
+        <is>
+          <t>丨总有一部电影会治愈你丨 丨写文案剪视频会掉头发丨 丨还会更新，期待再相逢丨</t>
+        </is>
+      </c>
     </row>
     <row r="2372">
       <c r="A2372" t="inlineStr">
@@ -40427,7 +40527,11 @@
         <v>579289</v>
       </c>
       <c r="D2372" t="inlineStr"/>
-      <c r="E2372" t="inlineStr"/>
+      <c r="E2372" t="inlineStr">
+        <is>
+          <t>🔥生活索然无味，小狗拯救人类🔥 🔥🈴私 🔥文案仅供娱乐 🔥欢迎投稿</t>
+        </is>
+      </c>
     </row>
     <row r="2373">
       <c r="A2373" t="inlineStr">
@@ -40440,7 +40544,11 @@
         <v>1963036</v>
       </c>
       <c r="D2373" t="inlineStr"/>
-      <c r="E2373" t="inlineStr"/>
+      <c r="E2373" t="inlineStr">
+        <is>
+          <t>24小时的交锋·光与影的博弈｜正义不会迟到更不会缺席 抖音独播｜第二季上线播出每周三、五、六、日更新 明大影视｜中国警察网｜警界文化传播｜ 声闻聚将｜未来绽放｜联合出品 导演：安佳星｜制作人：高炜｜ 演员：关注表｜每集@ 合作联系：619880@qq.com</t>
+        </is>
+      </c>
     </row>
     <row r="2374">
       <c r="A2374" t="inlineStr">
@@ -40453,7 +40561,11 @@
         <v>785164</v>
       </c>
       <c r="D2374" t="inlineStr"/>
-      <c r="E2374" t="inlineStr"/>
+      <c r="E2374" t="inlineStr">
+        <is>
+          <t>👀深扒历史经典名剧 👀号不出 请勿扰 👀招写手（私信）</t>
+        </is>
+      </c>
     </row>
     <row r="2375">
       <c r="A2375" t="inlineStr">
@@ -40466,7 +40578,11 @@
         <v>1149524</v>
       </c>
       <c r="D2375" t="inlineStr"/>
-      <c r="E2375" t="inlineStr"/>
+      <c r="E2375" t="inlineStr">
+        <is>
+          <t>用精练的视听击中你的内心深处。 《不止于颜值》系列预告——胡歌 因为能讲的内容很多，所以会是此账号内容最长的一集，制作时间也会较久，敬请期待... 商务🛰：zhaiyujia726</t>
+        </is>
+      </c>
     </row>
     <row r="2376">
       <c r="A2376" t="inlineStr">
@@ -40479,7 +40595,11 @@
         <v>1604525</v>
       </c>
       <c r="D2376" t="inlineStr"/>
-      <c r="E2376" t="inlineStr"/>
+      <c r="E2376" t="inlineStr">
+        <is>
+          <t>国内著名电影🎬电视剧 观众🌚 路线不清 风格不定 才艺不明</t>
+        </is>
+      </c>
     </row>
     <row r="2377">
       <c r="A2377" t="inlineStr">
@@ -40492,7 +40612,11 @@
         <v>2026584</v>
       </c>
       <c r="D2377" t="inlineStr"/>
-      <c r="E2377" t="inlineStr"/>
+      <c r="E2377" t="inlineStr">
+        <is>
+          <t>感谢抖音平台 清明上河图 霸总片场网红搭档@王久才 😂搞笑拍摄🎬现场倒地哥 @宋宋 小号旅游分享@顺顺游横店 👇感谢关注 持续更新 👉喜欢💕➕关注🎉。 泡泡：xfd9287151(注明)</t>
+        </is>
+      </c>
     </row>
     <row r="2378">
       <c r="A2378" t="inlineStr">
@@ -40505,7 +40629,11 @@
         <v>239537</v>
       </c>
       <c r="D2378" t="inlineStr"/>
-      <c r="E2378" t="inlineStr"/>
+      <c r="E2378" t="inlineStr">
+        <is>
+          <t>古装剧解说，每天更新，欢迎关注 感谢抖音 感谢大家的支持🌹 合作，找我抖音号</t>
+        </is>
+      </c>
     </row>
     <row r="2379">
       <c r="A2379" t="inlineStr">
@@ -40518,7 +40646,11 @@
         <v>213364</v>
       </c>
       <c r="D2379" t="inlineStr"/>
-      <c r="E2379" t="inlineStr"/>
+      <c r="E2379" t="inlineStr">
+        <is>
+          <t>💥修猴为你推荐好看的电影🐵 ❤️星图合作/宣发音推/剪辑学习/复制抖音号🙊 🌽橱窗有便宜好物噢↓↓↓🐒</t>
+        </is>
+      </c>
     </row>
     <row r="2380">
       <c r="A2380" t="inlineStr">
@@ -40531,7 +40663,11 @@
         <v>1406019</v>
       </c>
       <c r="D2380" t="inlineStr"/>
-      <c r="E2380" t="inlineStr"/>
+      <c r="E2380" t="inlineStr">
+        <is>
+          <t>☁️ 带你第一视角看电影 ⚠️独白学习/宣发 🛰️：YYBF07256988 @野羊不疯•Cut 也是我哦</t>
+        </is>
+      </c>
     </row>
     <row r="2381">
       <c r="A2381" t="inlineStr">
@@ -40544,7 +40680,11 @@
         <v>1134409</v>
       </c>
       <c r="D2381" t="inlineStr"/>
-      <c r="E2381" t="inlineStr"/>
+      <c r="E2381" t="inlineStr">
+        <is>
+          <t>总有一个故事 会让你感受到触动和共鸣！</t>
+        </is>
+      </c>
     </row>
     <row r="2382">
       <c r="A2382" t="inlineStr">
@@ -40557,7 +40697,11 @@
         <v>1184560</v>
       </c>
       <c r="D2382" t="inlineStr"/>
-      <c r="E2382" t="inlineStr"/>
+      <c r="E2382" t="inlineStr">
+        <is>
+          <t>🔥任何解说都代替不了精彩的原片🔥 🔥无人扶我青云志我自踏雪至山巅🔥 🔥感谢抖音，感谢关注🔥 🔥每天不定时更新🔥</t>
+        </is>
+      </c>
     </row>
     <row r="2383">
       <c r="A2383" t="inlineStr">
@@ -40570,7 +40714,11 @@
         <v>313365</v>
       </c>
       <c r="D2383" t="inlineStr"/>
-      <c r="E2383" t="inlineStr"/>
+      <c r="E2383" t="inlineStr">
+        <is>
+          <t>🧩米活力剧场 | 官方号 🔥爆款短剧持续更新 | 进粉丝群解锁独家花絮 长期招募编剧 投递邮箱：mihuoli@mihuoli.com</t>
+        </is>
+      </c>
     </row>
     <row r="2384">
       <c r="A2384" t="inlineStr">
@@ -40583,7 +40731,11 @@
         <v>407168</v>
       </c>
       <c r="D2384" t="inlineStr"/>
-      <c r="E2384" t="inlineStr"/>
+      <c r="E2384" t="inlineStr">
+        <is>
+          <t>❄️音乐 影视 合作 💬zht05292413 （注明来意）</t>
+        </is>
+      </c>
     </row>
     <row r="2385">
       <c r="A2385" t="inlineStr">
@@ -40596,7 +40748,11 @@
         <v>937706</v>
       </c>
       <c r="D2385" t="inlineStr"/>
-      <c r="E2385" t="inlineStr"/>
+      <c r="E2385" t="inlineStr">
+        <is>
+          <t>分享好剧 每日更新</t>
+        </is>
+      </c>
     </row>
     <row r="2386">
       <c r="A2386" t="inlineStr">
@@ -40609,7 +40765,11 @@
         <v>1271366</v>
       </c>
       <c r="D2386" t="inlineStr"/>
-      <c r="E2386" t="inlineStr"/>
+      <c r="E2386" t="inlineStr">
+        <is>
+          <t>一个有情感、有温度、有辣度的小姐姐💞 每日更新娱乐圈明星最新资讯🎯传播正能量 关注我别错过🫰</t>
+        </is>
+      </c>
     </row>
     <row r="2387">
       <c r="A2387" t="inlineStr">
@@ -40622,7 +40782,11 @@
         <v>293962</v>
       </c>
       <c r="D2387" t="inlineStr"/>
-      <c r="E2387" t="inlineStr"/>
+      <c r="E2387" t="inlineStr">
+        <is>
+          <t>🌟分享最新最好看的短剧 专人巡查举报搬运！盯着举报到封号为止！ ------------------------🍁</t>
+        </is>
+      </c>
     </row>
     <row r="2388">
       <c r="A2388" t="inlineStr">
@@ -40635,7 +40799,11 @@
         <v>857608</v>
       </c>
       <c r="D2388" t="inlineStr"/>
-      <c r="E2388" t="inlineStr"/>
+      <c r="E2388" t="inlineStr">
+        <is>
+          <t>内心丰盈 独行如众</t>
+        </is>
+      </c>
     </row>
     <row r="2389">
       <c r="A2389" t="inlineStr">
@@ -40648,7 +40816,11 @@
         <v>180032</v>
       </c>
       <c r="D2389" t="inlineStr"/>
-      <c r="E2389" t="inlineStr"/>
+      <c r="E2389" t="inlineStr">
+        <is>
+          <t>下载西瓜🍉视频看后续 海量电影、电视剧、短剧、小说 等你来看🎶🎶🎶 卫星🛰️：iyaoyuan0101</t>
+        </is>
+      </c>
     </row>
     <row r="2390">
       <c r="A2390" t="inlineStr">
@@ -40661,7 +40833,11 @@
         <v>912524</v>
       </c>
       <c r="D2390" t="inlineStr"/>
-      <c r="E2390" t="inlineStr"/>
+      <c r="E2390" t="inlineStr">
+        <is>
+          <t>逆风如解意，容易莫摧残。 希望我的剪辑和你有所共鸣。🈲二传🈲二改 入驻勿扰 商务合作：Lastly655</t>
+        </is>
+      </c>
     </row>
     <row r="2391">
       <c r="A2391" t="inlineStr">
@@ -40674,7 +40850,11 @@
         <v>816426</v>
       </c>
       <c r="D2391" t="inlineStr"/>
-      <c r="E2391" t="inlineStr"/>
+      <c r="E2391" t="inlineStr">
+        <is>
+          <t>我的主业：读甄嬛、读红楼。代表作：作家出版社《愿世间美好与你嬛嬛相扣》 🛰️ guanglang1991</t>
+        </is>
+      </c>
     </row>
     <row r="2392">
       <c r="A2392" t="inlineStr">
@@ -40687,7 +40867,11 @@
         <v>489371</v>
       </c>
       <c r="D2392" t="inlineStr"/>
-      <c r="E2392" t="inlineStr"/>
+      <c r="E2392" t="inlineStr">
+        <is>
+          <t>影视-动漫-商务合作：yang52998387</t>
+        </is>
+      </c>
     </row>
     <row r="2393">
       <c r="A2393" t="inlineStr">
@@ -40700,7 +40884,11 @@
         <v>208217</v>
       </c>
       <c r="D2393" t="inlineStr"/>
-      <c r="E2393" t="inlineStr"/>
+      <c r="E2393" t="inlineStr">
+        <is>
+          <t>欢迎来到霍格沃兹魔法学院; 带你了解游戏，电影里的魔法世界～ 🐧裙：794906630</t>
+        </is>
+      </c>
     </row>
     <row r="2394">
       <c r="A2394" t="inlineStr">
@@ -40713,7 +40901,11 @@
         <v>1584293</v>
       </c>
       <c r="D2394" t="inlineStr"/>
-      <c r="E2394" t="inlineStr"/>
+      <c r="E2394" t="inlineStr">
+        <is>
+          <t>爱帅哥美女 百家剧粉 宣发合作：lx10192348 （原创剪辑 禁搬运二传二改）</t>
+        </is>
+      </c>
     </row>
     <row r="2395">
       <c r="A2395" t="inlineStr">
@@ -40726,7 +40918,11 @@
         <v>430222</v>
       </c>
       <c r="D2395" t="inlineStr"/>
-      <c r="E2395" t="inlineStr"/>
+      <c r="E2395" t="inlineStr">
+        <is>
+          <t>本公司账号并非搬运素材库！ 少量盗窃不宜追究，得过且过！ 抓住不放必定追究！ 求同行放过！</t>
+        </is>
+      </c>
     </row>
     <row r="2396">
       <c r="A2396" t="inlineStr">
@@ -40739,7 +40935,11 @@
         <v>2457829</v>
       </c>
       <c r="D2396" t="inlineStr"/>
-      <c r="E2396" t="inlineStr"/>
+      <c r="E2396" t="inlineStr">
+        <is>
+          <t>带妈妈去看这部电影吧！ 让电影替你说出那句说不出口的： 我爱你！ 《关于我妈的一切》热映中</t>
+        </is>
+      </c>
     </row>
     <row r="2397">
       <c r="A2397" t="inlineStr">
@@ -40765,7 +40965,11 @@
         <v>920607</v>
       </c>
       <c r="D2398" t="inlineStr"/>
-      <c r="E2398" t="inlineStr"/>
+      <c r="E2398" t="inlineStr">
+        <is>
+          <t>上海广播电视台真实传媒有限公司（纪录片创制中心）官方账号</t>
+        </is>
+      </c>
     </row>
     <row r="2399">
       <c r="A2399" t="inlineStr">
@@ -40778,7 +40982,11 @@
         <v>297210</v>
       </c>
       <c r="D2399" t="inlineStr"/>
-      <c r="E2399" t="inlineStr"/>
+      <c r="E2399" t="inlineStr">
+        <is>
+          <t>商务合作联系请私信 长期招募娱乐编辑和剪刀手（简历or视频作品请投递E-mail：ghxk@vip.qq.com）</t>
+        </is>
+      </c>
     </row>
     <row r="2400">
       <c r="A2400" t="inlineStr">
@@ -40791,7 +40999,11 @@
         <v>393910</v>
       </c>
       <c r="D2400" t="inlineStr"/>
-      <c r="E2400" t="inlineStr"/>
+      <c r="E2400" t="inlineStr">
+        <is>
+          <t>“世上本无事，庸人自扰之” 献给每一个「像我这样的人」，放下焦虑，活出自己的人生 电影《二手杰作》，全国热映中🔥 @于和伟 @郭麒麟 @倪虹洁 @我是许恩怡 领衔主演</t>
+        </is>
+      </c>
     </row>
     <row r="2401">
       <c r="A2401" t="inlineStr">
@@ -40804,7 +41016,11 @@
         <v>1328825</v>
       </c>
       <c r="D2401" t="inlineStr"/>
-      <c r="E2401" t="inlineStr"/>
+      <c r="E2401" t="inlineStr">
+        <is>
+          <t>情怀值得 感谢支持🐳 不如我们从头来过💪</t>
+        </is>
+      </c>
     </row>
     <row r="2402">
       <c r="A2402" t="inlineStr">
@@ -40817,7 +41033,11 @@
         <v>787669</v>
       </c>
       <c r="D2402" t="inlineStr"/>
-      <c r="E2402" t="inlineStr"/>
+      <c r="E2402" t="inlineStr">
+        <is>
+          <t>专注影视解说 想看哪部剧可以评论告诉我！</t>
+        </is>
+      </c>
     </row>
     <row r="2403">
       <c r="A2403" t="inlineStr">
@@ -40830,7 +41050,11 @@
         <v>885674</v>
       </c>
       <c r="D2403" t="inlineStr"/>
-      <c r="E2403" t="inlineStr"/>
+      <c r="E2403" t="inlineStr">
+        <is>
+          <t>感谢抖音平台！</t>
+        </is>
+      </c>
     </row>
     <row r="2404">
       <c r="A2404" t="inlineStr">
@@ -40856,7 +41080,11 @@
         <v>1673002</v>
       </c>
       <c r="D2405" t="inlineStr"/>
-      <c r="E2405" t="inlineStr"/>
+      <c r="E2405" t="inlineStr">
+        <is>
+          <t>生活远比电影精彩✨</t>
+        </is>
+      </c>
     </row>
     <row r="2406">
       <c r="A2406" t="inlineStr">
@@ -40869,7 +41097,11 @@
         <v>285485</v>
       </c>
       <c r="D2406" t="inlineStr"/>
-      <c r="E2406" t="inlineStr"/>
+      <c r="E2406" t="inlineStr">
+        <is>
+          <t>云梦城影业旗下短剧剧场 《歌王，每天都想离婚》正在更新，重活一世歌王亮子再遇白月光，两人在综艺里杀疯了！解锁开年第一爽！ 共创伙伴：@演员耿池苏 @演员李蔚蓝 @演员李芊乐 @演员李木扬@演员冯翊 @演员王鸣鹤</t>
+        </is>
+      </c>
     </row>
     <row r="2407">
       <c r="A2407" t="inlineStr">
@@ -40882,7 +41114,11 @@
         <v>927346</v>
       </c>
       <c r="D2407" t="inlineStr"/>
-      <c r="E2407" t="inlineStr"/>
+      <c r="E2407" t="inlineStr">
+        <is>
+          <t>血债必须血偿！ 要赢，只能比恶人更狠！ 领衔主演 肖央、赵丽颖，特别主演 刘烨 全国热映中🔥 爆裂打拐 虎狼复仇</t>
+        </is>
+      </c>
     </row>
     <row r="2408">
       <c r="A2408" t="inlineStr">
@@ -40895,7 +41131,11 @@
         <v>430076</v>
       </c>
       <c r="D2408" t="inlineStr"/>
-      <c r="E2408" t="inlineStr"/>
+      <c r="E2408" t="inlineStr">
+        <is>
+          <t>「搬运提前联系 否则举报到底」 招漫剧原创首发代剪：z759107594</t>
+        </is>
+      </c>
     </row>
     <row r="2409">
       <c r="A2409" t="inlineStr">
@@ -40921,7 +41161,11 @@
         <v>1695774</v>
       </c>
       <c r="D2410" t="inlineStr"/>
-      <c r="E2410" t="inlineStr"/>
+      <c r="E2410" t="inlineStr">
+        <is>
+          <t>每日更新精彩内容 ❤ 关注等于催更，点赞越多更新越快 🔥 禁止搬运，如有发现立即举报 👊</t>
+        </is>
+      </c>
     </row>
     <row r="2411">
       <c r="A2411" t="inlineStr">
@@ -40934,7 +41178,11 @@
         <v>308070</v>
       </c>
       <c r="D2411" t="inlineStr"/>
-      <c r="E2411" t="inlineStr"/>
+      <c r="E2411" t="inlineStr">
+        <is>
+          <t>讲故事说好剧🔥</t>
+        </is>
+      </c>
     </row>
     <row r="2412">
       <c r="A2412" t="inlineStr">
@@ -40947,7 +41195,11 @@
         <v>2207664</v>
       </c>
       <c r="D2412" t="inlineStr"/>
-      <c r="E2412" t="inlineStr"/>
+      <c r="E2412" t="inlineStr">
+        <is>
+          <t>小号：小竹扎 我随便剪剪 你随便看看🤓</t>
+        </is>
+      </c>
     </row>
     <row r="2413">
       <c r="A2413" t="inlineStr">
@@ -40960,7 +41212,11 @@
         <v>328560</v>
       </c>
       <c r="D2413" t="inlineStr"/>
-      <c r="E2413" t="inlineStr"/>
+      <c r="E2413" t="inlineStr">
+        <is>
+          <t>海量短剧免费看 红果陪您一起看短剧</t>
+        </is>
+      </c>
     </row>
     <row r="2414">
       <c r="A2414" t="inlineStr">
@@ -40973,7 +41229,11 @@
         <v>198311</v>
       </c>
       <c r="D2414" t="inlineStr"/>
-      <c r="E2414" t="inlineStr"/>
+      <c r="E2414" t="inlineStr">
+        <is>
+          <t>电影《晴雅集》改编自梦枕貘原著小说《阴阳师》，由郭敬明执导，赵又廷、邓伦、王子文、春夏、汪铎等主演。12月25日，全国影院上映。</t>
+        </is>
+      </c>
     </row>
     <row r="2415">
       <c r="A2415" t="inlineStr">
@@ -40986,7 +41246,11 @@
         <v>167737</v>
       </c>
       <c r="D2415" t="inlineStr"/>
-      <c r="E2415" t="inlineStr"/>
+      <c r="E2415" t="inlineStr">
+        <is>
+          <t>瞧一瞧看一看喽</t>
+        </is>
+      </c>
     </row>
     <row r="2416">
       <c r="A2416" t="inlineStr">
@@ -40999,7 +41263,11 @@
         <v>622814</v>
       </c>
       <c r="D2416" t="inlineStr"/>
-      <c r="E2416" t="inlineStr"/>
+      <c r="E2416" t="inlineStr">
+        <is>
+          <t>直播间冲浪一只鱼🐟 有家小卖部🏡 只卖可乐🎏 ⚠️禁止搬运，二改二传，有需要请联系我❤️</t>
+        </is>
+      </c>
     </row>
     <row r="2417">
       <c r="A2417" t="inlineStr">
@@ -41012,7 +41280,11 @@
         <v>692684</v>
       </c>
       <c r="D2417" t="inlineStr"/>
-      <c r="E2417" t="inlineStr"/>
+      <c r="E2417" t="inlineStr">
+        <is>
+          <t>导演｜编剧｜出镜｜后期都是自己 Estj 能让我进步的事情都会去做 祝你天天开心 合：starrank-11（非本人）</t>
+        </is>
+      </c>
     </row>
     <row r="2418">
       <c r="A2418" t="inlineStr">
@@ -41025,7 +41297,11 @@
         <v>1873124</v>
       </c>
       <c r="D2418" t="inlineStr"/>
-      <c r="E2418" t="inlineStr"/>
+      <c r="E2418" t="inlineStr">
+        <is>
+          <t>本号原为欧美娱乐搞笑视频 首先声明没有卖号 本号于2020年居家隔离时开通，后因工作忙碌无法顾及，停更至今，非常抱歉。 今年结束北漂后，犹豫再三，决定探索新的内容，还请留存的粉丝谅解…</t>
+        </is>
+      </c>
     </row>
     <row r="2419">
       <c r="A2419" t="inlineStr">
@@ -41038,7 +41314,11 @@
         <v>2180146</v>
       </c>
       <c r="D2419" t="inlineStr"/>
-      <c r="E2419" t="inlineStr"/>
+      <c r="E2419" t="inlineStr">
+        <is>
+          <t>感谢抖音✨感谢官方✨ 感谢你的点赞➕关注</t>
+        </is>
+      </c>
     </row>
     <row r="2420">
       <c r="A2420" t="inlineStr">
@@ -41064,7 +41344,11 @@
         <v>1797430</v>
       </c>
       <c r="D2421" t="inlineStr"/>
-      <c r="E2421" t="inlineStr"/>
+      <c r="E2421" t="inlineStr">
+        <is>
+          <t>⭐如果热爱也有颜色 那么一定是特摄 📣看不到的视频就是被下架了 💫主要内容：特摄＆解析＆盘点 ✨没更新就是在憋大招或者构思</t>
+        </is>
+      </c>
     </row>
     <row r="2422">
       <c r="A2422" t="inlineStr">
@@ -41090,7 +41374,11 @@
         <v>186274</v>
       </c>
       <c r="D2423" t="inlineStr"/>
-      <c r="E2423" t="inlineStr"/>
+      <c r="E2423" t="inlineStr">
+        <is>
+          <t>好剧推荐 招原创混剪，带作品（小白勿扰） 四川成都 招剪辑（线下）</t>
+        </is>
+      </c>
     </row>
     <row r="2424">
       <c r="A2424" t="inlineStr">
@@ -41129,7 +41417,11 @@
         <v>1558894</v>
       </c>
       <c r="D2426" t="inlineStr"/>
-      <c r="E2426" t="inlineStr"/>
+      <c r="E2426" t="inlineStr">
+        <is>
+          <t>家人们追剧吗🎇迪丽热巴 ✘ 龚俊 ✘刘宇宁💓霸道女水匪遇上温润纯情太子，开启土甜恋爱之旅，还有忠犬竹马深情守护👖全网独播中🔥不断更直通大结局的快乐你值得拥有！</t>
+        </is>
+      </c>
     </row>
     <row r="2427">
       <c r="A2427" t="inlineStr">
@@ -41142,7 +41434,11 @@
         <v>265946</v>
       </c>
       <c r="D2427" t="inlineStr"/>
-      <c r="E2427" t="inlineStr"/>
+      <c r="E2427" t="inlineStr">
+        <is>
+          <t>你太专注于未来 却没有意识到呀 今天正是你多年前祈求的模样</t>
+        </is>
+      </c>
     </row>
     <row r="2428">
       <c r="A2428" t="inlineStr">
@@ -41155,7 +41451,11 @@
         <v>2577708</v>
       </c>
       <c r="D2428" t="inlineStr"/>
-      <c r="E2428" t="inlineStr"/>
+      <c r="E2428" t="inlineStr">
+        <is>
+          <t>漫漫岁月 🌲 坚守温暖 万般滋味 🏠 皆是生活 三代人喊你来看三道沟的故事 8月27日起 锁定🐧xCCTV1 📺</t>
+        </is>
+      </c>
     </row>
     <row r="2429">
       <c r="A2429" t="inlineStr">
@@ -41168,7 +41468,11 @@
         <v>2859082</v>
       </c>
       <c r="D2429" t="inlineStr"/>
-      <c r="E2429" t="inlineStr"/>
+      <c r="E2429" t="inlineStr">
+        <is>
+          <t>招优质剪手</t>
+        </is>
+      </c>
     </row>
     <row r="2430">
       <c r="A2430" t="inlineStr">
@@ -41181,7 +41485,11 @@
         <v>2115323</v>
       </c>
       <c r="D2430" t="inlineStr"/>
-      <c r="E2430" t="inlineStr"/>
+      <c r="E2430" t="inlineStr">
+        <is>
+          <t>👀观看完整剧集，点击视频左下角。 💗持续更新更多精彩短剧。</t>
+        </is>
+      </c>
     </row>
     <row r="2431">
       <c r="A2431" t="inlineStr">
@@ -41194,7 +41502,11 @@
         <v>705177</v>
       </c>
       <c r="D2431" t="inlineStr"/>
-      <c r="E2431" t="inlineStr"/>
+      <c r="E2431" t="inlineStr">
+        <is>
+          <t>合作~投稿复制抖音号！</t>
+        </is>
+      </c>
     </row>
     <row r="2432">
       <c r="A2432" t="inlineStr">
@@ -41207,7 +41519,11 @@
         <v>397281</v>
       </c>
       <c r="D2432" t="inlineStr"/>
-      <c r="E2432" t="inlineStr"/>
+      <c r="E2432" t="inlineStr">
+        <is>
+          <t>招混剪👋 能熟练操作剪映 （分成合作可教学） 🌈感谢遇见</t>
+        </is>
+      </c>
     </row>
     <row r="2433">
       <c r="A2433" t="inlineStr">
@@ -41220,7 +41536,11 @@
         <v>677371</v>
       </c>
       <c r="D2433" t="inlineStr"/>
-      <c r="E2433" t="inlineStr"/>
+      <c r="E2433" t="inlineStr">
+        <is>
+          <t>我们只被自己定义！</t>
+        </is>
+      </c>
     </row>
     <row r="2434">
       <c r="A2434" t="inlineStr">
@@ -41233,7 +41553,11 @@
         <v>549048</v>
       </c>
       <c r="D2434" t="inlineStr"/>
-      <c r="E2434" t="inlineStr"/>
+      <c r="E2434" t="inlineStr">
+        <is>
+          <t>电视剧《绝密较量》正在热播中！</t>
+        </is>
+      </c>
     </row>
     <row r="2435">
       <c r="A2435" t="inlineStr">
@@ -41246,7 +41570,11 @@
         <v>979263</v>
       </c>
       <c r="D2435" t="inlineStr"/>
-      <c r="E2435" t="inlineStr"/>
+      <c r="E2435" t="inlineStr">
+        <is>
+          <t>理娱，不止是个女性话题博主。 商务:lixinyao@xinpianchang.com</t>
+        </is>
+      </c>
     </row>
     <row r="2436">
       <c r="A2436" t="inlineStr">
@@ -41259,7 +41587,11 @@
         <v>422670</v>
       </c>
       <c r="D2436" t="inlineStr"/>
-      <c r="E2436" t="inlineStr"/>
+      <c r="E2436" t="inlineStr">
+        <is>
+          <t>小号：@牛牛宝宝 游戏直播：@唐溪（娱乐号 ） 收徒➕🛰️wqq215257</t>
+        </is>
+      </c>
     </row>
     <row r="2437">
       <c r="A2437" t="inlineStr">
@@ -41272,7 +41604,11 @@
         <v>840942</v>
       </c>
       <c r="D2437" t="inlineStr"/>
-      <c r="E2437" t="inlineStr"/>
+      <c r="E2437" t="inlineStr">
+        <is>
+          <t>“祝各位看官，皆遇良人” 宣发盒作：私✉️</t>
+        </is>
+      </c>
     </row>
     <row r="2438">
       <c r="A2438" t="inlineStr">
@@ -41285,7 +41621,11 @@
         <v>443228</v>
       </c>
       <c r="D2438" t="inlineStr"/>
-      <c r="E2438" t="inlineStr"/>
+      <c r="E2438" t="inlineStr">
+        <is>
+          <t>一名全能制作人💻（待归）</t>
+        </is>
+      </c>
     </row>
     <row r="2439">
       <c r="A2439" t="inlineStr">
